--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:02:07+00:00</t>
+    <t>2021-12-10T20:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:11:58+00:00</t>
+    <t>2021-12-10T22:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:42:34+00:00</t>
+    <t>2021-12-15T00:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T00:34:29+00:00</t>
+    <t>2021-12-21T21:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,10 +614,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Type-ValueSet</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -658,10 +658,13 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -1401,9 +1404,6 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the type, such as  where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more event codes are included, they shall not conflict with the values inherent in the class or type elements as such a conflict would create an ambiguous situation.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -1895,7 +1895,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3603,7 +3603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3613,13 +3613,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3663,11 +3663,9 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X15" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -3733,13 +3731,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3785,9 +3783,11 @@
       <c r="W16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3823,13 +3823,13 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>199</v>
@@ -3838,12 +3838,12 @@
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3866,13 +3866,13 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3923,7 +3923,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -3938,34 +3938,34 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3984,16 +3984,16 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4043,7 +4043,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
@@ -4058,19 +4058,19 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4104,16 +4104,16 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4163,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4178,30 +4178,30 @@
         <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4224,16 +4224,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4283,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4298,30 +4298,30 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4344,16 +4344,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4403,7 +4403,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4418,13 +4418,13 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4464,16 +4464,16 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4523,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -4541,10 +4541,10 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4556,12 +4556,12 @@
         <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4587,10 +4587,10 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4641,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -4662,7 +4662,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4708,7 +4708,7 @@
         <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>140</v>
@@ -4761,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4782,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4799,11 +4799,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4825,10 +4825,10 @@
         <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -4883,7 +4883,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4947,13 +4947,13 @@
         <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4982,10 +4982,10 @@
         <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5003,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>91</v>
@@ -5021,10 +5021,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5036,12 +5036,12 @@
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5064,13 +5064,13 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5121,7 +5121,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>91</v>
@@ -5139,10 +5139,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5154,12 +5154,12 @@
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5185,16 +5185,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5243,7 +5243,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5264,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5273,15 +5273,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5307,16 +5307,16 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5341,13 +5341,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5365,7 +5365,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5383,27 +5383,27 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
@@ -5426,13 +5426,13 @@
         <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5471,17 +5471,17 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>91</v>
@@ -5499,10 +5499,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5545,10 +5545,10 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5599,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -5620,7 +5620,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5666,7 +5666,7 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>140</v>
@@ -5719,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5740,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5757,11 +5757,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5783,10 +5783,10 @@
         <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5841,7 +5841,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5902,13 +5902,13 @@
         <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5959,7 +5959,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>91</v>
@@ -5977,27 +5977,27 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6020,16 +6020,16 @@
         <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6055,11 +6055,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6077,7 +6077,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
@@ -6095,13 +6095,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6110,15 +6110,15 @@
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>79</v>
@@ -6140,13 +6140,13 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6197,7 +6197,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>91</v>
@@ -6215,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6261,10 +6261,10 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6315,7 +6315,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
@@ -6336,7 +6336,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6382,7 +6382,7 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>140</v>
@@ -6435,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6456,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6473,11 +6473,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6499,10 +6499,10 @@
         <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>140</v>
@@ -6557,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6618,13 +6618,13 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6675,7 +6675,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>91</v>
@@ -6693,27 +6693,27 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6739,10 +6739,10 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6793,7 +6793,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6814,7 +6814,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6860,7 +6860,7 @@
         <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>140</v>
@@ -6901,19 +6901,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6934,7 +6934,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6977,14 +6977,14 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6997,7 +6997,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -7012,10 +7012,10 @@
         <v>171</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
@@ -7054,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7063,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7097,14 +7097,14 @@
         <v>111</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7117,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7153,7 +7153,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7174,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7214,19 +7214,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7305,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7336,19 +7336,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7361,7 +7361,7 @@
         <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>79</v>
@@ -7397,7 +7397,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
@@ -7418,7 +7418,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7427,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7458,19 +7458,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7519,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7580,19 +7580,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7705,14 +7705,14 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7725,7 +7725,7 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>79</v>
@@ -7761,7 +7761,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -7782,7 +7782,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7822,17 +7822,17 @@
         <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7902,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7942,16 +7942,16 @@
         <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7962,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>79</v>
@@ -7980,10 +7980,10 @@
         <v>115</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -8019,13 +8019,13 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8034,15 +8034,15 @@
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8064,13 +8064,13 @@
         <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8121,7 +8121,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>91</v>
@@ -8139,10 +8139,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8185,10 +8185,10 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8239,7 +8239,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8306,7 +8306,7 @@
         <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>140</v>
@@ -8359,7 +8359,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>80</v>
@@ -8380,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8397,11 +8397,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8423,10 +8423,10 @@
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
@@ -8481,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8542,13 +8542,13 @@
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8599,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>91</v>
@@ -8617,27 +8617,27 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8663,10 +8663,10 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8717,7 +8717,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>80</v>
@@ -8738,7 +8738,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8784,7 +8784,7 @@
         <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>140</v>
@@ -8825,19 +8825,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -8858,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8901,14 +8901,14 @@
         <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8921,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8936,10 +8936,10 @@
         <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8957,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>80</v>
@@ -8978,7 +8978,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8987,7 +8987,7 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9021,14 +9021,14 @@
         <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9041,7 +9041,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -9077,7 +9077,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9098,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9138,19 +9138,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9199,7 +9199,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -9220,7 +9220,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9229,7 +9229,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9260,19 +9260,19 @@
         <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9285,7 +9285,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9321,7 +9321,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
@@ -9342,7 +9342,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9351,7 +9351,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9382,19 +9382,19 @@
         <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9443,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9464,7 +9464,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9504,19 +9504,19 @@
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9565,7 +9565,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9586,7 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9629,14 +9629,14 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9649,7 +9649,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9685,7 +9685,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9746,17 +9746,17 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9805,7 +9805,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -9826,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9866,16 +9866,16 @@
         <v>92</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9886,7 +9886,7 @@
         <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9904,10 +9904,10 @@
         <v>115</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9925,7 +9925,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
@@ -9943,13 +9943,13 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9958,15 +9958,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
@@ -9988,13 +9988,13 @@
         <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10045,7 +10045,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>91</v>
@@ -10063,10 +10063,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10083,7 +10083,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10109,10 +10109,10 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10163,7 +10163,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>80</v>
@@ -10184,7 +10184,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10201,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10230,7 +10230,7 @@
         <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>140</v>
@@ -10283,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -10304,7 +10304,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10321,11 +10321,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10347,10 +10347,10 @@
         <v>137</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>140</v>
@@ -10405,7 +10405,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10466,13 +10466,13 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10523,7 +10523,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>91</v>
@@ -10541,27 +10541,27 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10587,10 +10587,10 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10641,7 +10641,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -10662,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10708,7 +10708,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -10749,19 +10749,19 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -10782,7 +10782,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10825,14 +10825,14 @@
         <v>111</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10845,7 +10845,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10860,10 +10860,10 @@
         <v>171</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10881,7 +10881,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -10902,7 +10902,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10911,7 +10911,7 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10945,14 +10945,14 @@
         <v>111</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10965,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11001,7 +11001,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -11022,7 +11022,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11062,19 +11062,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11123,7 +11123,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -11144,7 +11144,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11153,7 +11153,7 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11184,19 +11184,19 @@
         <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11209,7 +11209,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11245,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>80</v>
@@ -11266,7 +11266,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11275,7 +11275,7 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11306,19 +11306,19 @@
         <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11367,7 +11367,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>80</v>
@@ -11388,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11428,19 +11428,19 @@
         <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11489,7 +11489,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>80</v>
@@ -11510,7 +11510,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11553,14 +11553,14 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11573,7 +11573,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11609,7 +11609,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>80</v>
@@ -11630,7 +11630,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11670,17 +11670,17 @@
         <v>92</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11729,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -11750,7 +11750,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11790,16 +11790,16 @@
         <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11810,7 +11810,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11828,10 +11828,10 @@
         <v>115</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11849,7 +11849,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -11867,13 +11867,13 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11882,12 +11882,12 @@
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11910,16 +11910,16 @@
         <v>92</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11969,7 +11969,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
@@ -11990,7 +11990,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12033,10 +12033,10 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12087,7 +12087,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -12108,7 +12108,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12154,7 +12154,7 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>140</v>
@@ -12207,7 +12207,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12228,7 +12228,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12245,11 +12245,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12271,10 +12271,10 @@
         <v>137</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>140</v>
@@ -12329,7 +12329,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>80</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12390,13 +12390,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12447,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>80</v>
@@ -12462,19 +12462,19 @@
         <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12511,13 +12511,13 @@
         <v>189</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12543,7 +12543,7 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X89" t="s" s="2">
         <v>446</v>
@@ -12567,7 +12567,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>80</v>
@@ -12779,7 +12779,7 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>462</v>
@@ -12901,7 +12901,7 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>473</v>
@@ -13061,13 +13061,13 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
